--- a/biology/Écologie/Objectif_de_développement_durable_no_3_des_Nations_unies/Objectif_de_développement_durable_no_3_des_Nations_unies.xlsx
+++ b/biology/Écologie/Objectif_de_développement_durable_no_3_des_Nations_unies/Objectif_de_développement_durable_no_3_des_Nations_unies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Objectif_de_d%C3%A9veloppement_durable_no_3_des_Nations_unies</t>
+          <t>Objectif_de_développement_durable_no_3_des_Nations_unies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Santé et bien-être
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Objectif_de_d%C3%A9veloppement_durable_no_3_des_Nations_unies</t>
+          <t>Objectif_de_développement_durable_no_3_des_Nations_unies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enjeux mondiaux
-En 2020 la population mondiale était d’environ 7,8 milliards d’habitants sur terre. L'enjeu est d’augmenter l’espérance de vie moyenne et donc d’améliorer l’accès aux soins. En effet, plus de 400 millions[1] de personnes n’ont pas accès au service de santé essentiel, et selon le PNUB, près de 1,6 milliard de personnes vivent dans des environnements fragiles où le manque d'accès aux services de santé basiques représente un obstacle majeur.  
+          <t>Enjeux mondiaux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020 la population mondiale était d’environ 7,8 milliards d’habitants sur terre. L'enjeu est d’augmenter l’espérance de vie moyenne et donc d’améliorer l’accès aux soins. En effet, plus de 400 millions de personnes n’ont pas accès au service de santé essentiel, et selon le PNUB, près de 1,6 milliard de personnes vivent dans des environnements fragiles où le manque d'accès aux services de santé basiques représente un obstacle majeur.  
 Au Panama, l'un des programmes de l’ONU intervient encore plus depuis que le covid-19 est arrivé pour lutter contre le VIH, qui continue d’infecter et de tuer de nombreuses personnes.
-Enjeux en France
-Deux enjeux majeurs sont présents en France : L'égalité de l'accès aux soins pour tous les territoires et La réduction du vieillissement de la société française. La France doit anticiper les nouveaux besoins et amplifier sa politique favorisant les personnes en situation de handicap. Elle doit développer une politique de protection et de promotion de la santé.
 </t>
         </is>
       </c>
@@ -530,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Objectif_de_d%C3%A9veloppement_durable_no_3_des_Nations_unies</t>
+          <t>Objectif_de_développement_durable_no_3_des_Nations_unies</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +560,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Enjeux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Enjeux en France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux enjeux majeurs sont présents en France : L'égalité de l'accès aux soins pour tous les territoires et La réduction du vieillissement de la société française. La France doit anticiper les nouveaux besoins et amplifier sa politique favorisant les personnes en situation de handicap. Elle doit développer une politique de protection et de promotion de la santé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Objectif_de_développement_durable_no_3_des_Nations_unies</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Objectif_de_d%C3%A9veloppement_durable_no_3_des_Nations_unies</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Cibles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’objectif de développement durable numéro 3 est décliné en 9 cibles[2] à atteindre d’ici 2020 et 2030 : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’objectif de développement durable numéro 3 est décliné en 9 cibles à atteindre d’ici 2020 et 2030 : 
 3.1 D’ici à 2030, faire passer le taux mondial de mortalité maternelle au-dessous de 70 pour 100 000 naissances vivantes  
 3.2 D’ici à 2030, éliminer les décès évitables de nouveau-nés et d’enfants de moins de 5 ans, tous les pays devant chercher à ramener la mortalité néonatale à 12 pour 1 000 naissances vivantes au plus et la mortalité des enfants de moins de 5 ans à 25 pour 1 000 naissances vivantes au plus  
 3.3 D’ici à 2030, mettre fin à l’épidémie de sida, à la tuberculose, au paludisme et aux maladies tropicales négligées et combattre l’hépatite, les maladies transmises par l’eau et autres maladies transmissibles  
@@ -569,34 +623,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Objectif_de_d%C3%A9veloppement_durable_no_3_des_Nations_unies</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Objectif_de_développement_durable_no_3_des_Nations_unies</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Objectif_de_d%C3%A9veloppement_durable_no_3_des_Nations_unies</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Indicateurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indicateurs nationaux
-L’ODD 3 s’appuie sur différents indicateurs[3] pour mesurer l’avancement de l’objectif.  Les indicateurs peuvent différer d’un pays à l’autre néanmoins certains sont communs et une liste internationale a été établie.   
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Indicateurs nationaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’ODD 3 s’appuie sur différents indicateurs pour mesurer l’avancement de l’objectif.  Les indicateurs peuvent différer d’un pays à l’autre néanmoins certains sont communs et une liste internationale a été établie.   
 3.1 : Le taux de mortalité maternelle ainsi que la proportion de naissances assistées par du personnel de santé qualifié.   
 3.2 : Le taux de mortalité des moins de 5 ans et le taux de mortalité néonatale seront les critères étudiés pour mesurer la réduction de la mortalité infantile (décès du nourrisson avant son premier mois de vie).    
 3.3 : Les indicateurs sont donc le nombre de nouvelles infections à  VIH pour 1 000 habitants non infectés, l’incidence de la tuberculose pour 100 000 habitants, l’incidence du paludisme pour 1 000 habitants, l’incidence de l’hépatite B pour 100 000 habitants, ou encore le nombre de personnes nécessitant des interventions contre les maladies tropicales négligées. Ces indicateurs seront étudiés selon le sexe, l’âge et les populations clés.   
@@ -610,8 +669,43 @@
 3.B : L’aide publique totale au développement aux secteurs de la recherche médicale et de la santé fondamentale, la proportion de la population cible couverte par tous les vaccins inclus dans leur programme national et enfin la proportion d’établissements de santé qui ont un ensemble de médicaments essentiels pertinents disponibles et abordables sur une base durable  
 3.C : La densité et distribution des agents de santé  
 3.d : Renforcer la capacité de tous les pays, en particulier les pays en développement, à prévenir rapidement et à réduire les risques et à prendre en charge les risques sanitaires nationaux et mondiaux.  
-Indicateurs Européens
-Eurostat[4] défini onze indicateurs au niveau européen pour l’objectif du développement durable numéro 3. Ce sont les suivants :   
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Objectif_de_développement_durable_no_3_des_Nations_unies</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Objectif_de_d%C3%A9veloppement_durable_no_3_des_Nations_unies</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Indicateurs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Indicateurs Européens</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Eurostat défini onze indicateurs au niveau européen pour l’objectif du développement durable numéro 3. Ce sont les suivants :   
 Espérance de vie à la naissance selon le sexe  
 Part des personnes ayant une bonne ou très bonne santé perçue selon le sexe  
 Prévalence du tabagisme selon le sexe  
@@ -622,9 +716,43 @@
 Personnes tuées dans des accidents du travail, par sexe  
 Population vivant dans des ménages considérant qu’ils souffrent du bruit et du statut de pauvreté    
 Personnes tuées dans des accidents de la route  
-Exposition à la pollution atmosphérique par les particules
-Indicateurs en France
-Selon L’Insee, les indicateurs retenus sont au nombre de 9 et sont les suivants :   
+Exposition à la pollution atmosphérique par les particules</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Objectif_de_développement_durable_no_3_des_Nations_unies</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Objectif_de_d%C3%A9veloppement_durable_no_3_des_Nations_unies</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Indicateurs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Indicateurs en France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon L’Insee, les indicateurs retenus sont au nombre de 9 et sont les suivants :   
 Espérance de vie  
 Découvertes de séropositivité VIH  
 Décès pour cause de suicide  
